--- a/Liste TikTok par chapitre.xlsx
+++ b/Liste TikTok par chapitre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Documents\Issa Cirque\Manuscrit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Desktop\histoire_et_culture_du_cirque_traditionnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0603F581-9238-4B6F-8F16-CBB3DE9F3D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775CB15-E699-48CD-A42D-0D82FCB87B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapitre I." sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="207">
   <si>
     <t>Histoire du cirque traditionnel : Partie 1</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Histoire festival internationnal du cirque de Monte Carlo : partie 3</t>
   </si>
   <si>
-    <t>Histoire du cirque Arlette Grüss</t>
-  </si>
-  <si>
     <t>Histoire du Cirque Médrano : partie 1</t>
   </si>
   <si>
@@ -583,6 +580,90 @@
   </si>
   <si>
     <t>Alexandra Pauwels</t>
+  </si>
+  <si>
+    <t>Histoire de la famille Gontelle : partie 1</t>
+  </si>
+  <si>
+    <t>Histoire de la famille Gontelle : partie 2</t>
+  </si>
+  <si>
+    <t>Histoire de la famille Gontelle : partie 3</t>
+  </si>
+  <si>
+    <t>Histoire de la famille Pauwels : partie 1</t>
+  </si>
+  <si>
+    <t>Histoire de la famille Pauwels : partie 2</t>
+  </si>
+  <si>
+    <t>Histoire de la famille Pauwels : partie 3</t>
+  </si>
+  <si>
+    <t>Histoire de la famille Pauwels : partie 4</t>
+  </si>
+  <si>
+    <t>Histoire de la famille Pauwels : partie 5</t>
+  </si>
+  <si>
+    <t>Histoire de Michel Palmer : partie 1</t>
+  </si>
+  <si>
+    <t>Histoire de Michel Palmer : partie 2</t>
+  </si>
+  <si>
+    <t>Histoire de Michel Palmer : partie 3</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 1</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 2</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 3</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 4</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 5</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 6</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 7</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 8</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 9</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 10</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 11</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 12</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 13</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Arlette Grüss : partie 14</t>
+  </si>
+  <si>
+    <t>Histoire d'Arthur et Carmen Möller : partie 1</t>
+  </si>
+  <si>
+    <t>Histoire d'Arthur et Carmen Möller : partie 2</t>
+  </si>
+  <si>
+    <t>Hist</t>
   </si>
 </sst>
 </file>
@@ -832,9 +913,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -872,7 +953,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -978,7 +1059,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1120,7 +1201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1179,7 +1260,7 @@
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1191,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688F6DA9-B5FA-463A-95DD-7B60FDB3FED9}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1259,7 +1340,7 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,62 +1460,102 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1446,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10146888-E0BE-43A6-B8CF-C405CF13BB50}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A18"/>
+    <sheetView topLeftCell="A24" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1514,7 +1635,7 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1529,26 +1650,26 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
+      <c r="A14" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1563,8 +1684,78 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>176</v>
+      <c r="A18" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1576,15 +1767,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035F2A1E-00DD-447A-80C3-BE7F4AED3EC3}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A56" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1593,16 +1784,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
@@ -1611,12 +1802,12 @@
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
@@ -1625,13 +1816,13 @@
     </row>
     <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
@@ -1641,343 +1832,368 @@
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67418CC9-E4CC-47C5-B8DE-3BADCF9C5B35}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2006,12 +2222,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
@@ -2020,12 +2236,12 @@
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
@@ -2034,12 +2250,12 @@
     </row>
     <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
@@ -2048,46 +2264,46 @@
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2114,12 +2330,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
@@ -2128,12 +2344,12 @@
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
@@ -2142,7 +2358,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2155,7 +2371,7 @@
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2182,12 +2398,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
@@ -2196,12 +2412,12 @@
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
@@ -2210,12 +2426,12 @@
     </row>
     <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
@@ -2224,16 +2440,16 @@
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2259,7 +2475,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="15">
         <v>12</v>
@@ -2267,25 +2483,25 @@
     </row>
     <row r="2" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A5" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="17">
         <v>15</v>
@@ -2293,25 +2509,25 @@
     </row>
     <row r="6" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A6" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A7" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A8" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A9" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="17">
         <v>4</v>
@@ -2319,7 +2535,7 @@
     </row>
     <row r="10" spans="1:2" ht="28.8" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="17">
         <v>4</v>
@@ -2327,7 +2543,7 @@
     </row>
     <row r="11" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="19">
         <f>SUM(B1:B10)</f>

--- a/Liste TikTok par chapitre.xlsx
+++ b/Liste TikTok par chapitre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Desktop\histoire_et_culture_du_cirque_traditionnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775CB15-E699-48CD-A42D-0D82FCB87B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88554687-08B3-476E-A4DD-A2B2DB529C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapitre I." sheetId="1" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688F6DA9-B5FA-463A-95DD-7B60FDB3FED9}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="99" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -1569,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10146888-E0BE-43A6-B8CF-C405CF13BB50}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="103" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="103" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1769,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035F2A1E-00DD-447A-80C3-BE7F4AED3EC3}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="104" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="104" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -2383,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DAF1C4-60DC-49EF-A077-8C3721052566}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/Liste TikTok par chapitre.xlsx
+++ b/Liste TikTok par chapitre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Desktop\histoire_et_culture_du_cirque_traditionnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88554687-08B3-476E-A4DD-A2B2DB529C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F989E04-47D3-42E0-9F17-B19B5687C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapitre I." sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="235">
   <si>
     <t>Histoire du cirque traditionnel : Partie 1</t>
   </si>
@@ -663,7 +663,91 @@
     <t>Histoire d'Arthur et Carmen Möller : partie 2</t>
   </si>
   <si>
-    <t>Hist</t>
+    <t>Histoire du cirque Krone : partie 1</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 2</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 3</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 4</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 5</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 6</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 7</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 8</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 9</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 10</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 11</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 12</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 13</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 14</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 15</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 16</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 17</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 18</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 19</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 20</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 21</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 22</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 23</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 24</t>
+  </si>
+  <si>
+    <t>Histoire du cirque Krone : partie 25</t>
+  </si>
+  <si>
+    <t>"Eternel" au Cirque Arlette Grüss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délire au Cirque d'Hiver Bouglione </t>
+  </si>
+  <si>
+    <t>Cirque Amar les 100 ans</t>
+  </si>
+  <si>
+    <t>Cirque Europa</t>
   </si>
 </sst>
 </file>
@@ -881,15 +965,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688F6DA9-B5FA-463A-95DD-7B60FDB3FED9}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -1567,9 +1651,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10146888-E0BE-43A6-B8CF-C405CF13BB50}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="103" workbookViewId="0">
+    <sheetView zoomScale="103" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1754,8 +1838,128 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1769,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035F2A1E-00DD-447A-80C3-BE7F4AED3EC3}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1831,7 +2035,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1943,7 +2147,7 @@
       <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="23" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2068,26 +2272,26 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="24" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="24" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2146,55 +2350,57 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
         <v>205</v>
       </c>
+      <c r="B74" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2313,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17009B92-65F0-4252-AB67-401F53445F0D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2329,12 +2535,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="7"/>
@@ -2343,12 +2549,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="8"/>
@@ -2357,21 +2563,36 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DAF1C4-60DC-49EF-A077-8C3721052566}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2464,7 +2685,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Liste TikTok par chapitre.xlsx
+++ b/Liste TikTok par chapitre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Desktop\histoire_et_culture_du_cirque_traditionnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F989E04-47D3-42E0-9F17-B19B5687C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3FCB26-A7E7-4211-AD23-9439631415CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapitre I." sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -967,7 +967,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1358,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688F6DA9-B5FA-463A-95DD-7B60FDB3FED9}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -1973,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035F2A1E-00DD-447A-80C3-BE7F4AED3EC3}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1993,7 +1992,7 @@
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2005,12 +2004,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="8"/>
@@ -2147,12 +2146,12 @@
       <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2237,37 +2236,37 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2275,23 +2274,23 @@
       <c r="A51" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="23" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2376,17 +2375,17 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="12" t="s">
         <v>189</v>
       </c>
     </row>

--- a/Liste TikTok par chapitre.xlsx
+++ b/Liste TikTok par chapitre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Desktop\histoire_et_culture_du_cirque_traditionnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3FCB26-A7E7-4211-AD23-9439631415CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D182C5E7-F9D5-4202-8B15-F472EDAD9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -966,7 +966,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1972,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035F2A1E-00DD-447A-80C3-BE7F4AED3EC3}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:A72"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2034,23 +2033,26 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="13" t="s">
         <v>77</v>
       </c>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="10"/>
       <c r="D8" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
@@ -2149,11 +2151,13 @@
       <c r="A26" s="13" t="s">
         <v>96</v>
       </c>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>97</v>
       </c>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -2180,117 +2184,124 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>118</v>
       </c>
+      <c r="B48" s="12"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>119</v>
       </c>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="B50" s="12"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2378,16 +2389,19 @@
       <c r="A70" s="13" t="s">
         <v>187</v>
       </c>
+      <c r="B70" s="12"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>188</v>
       </c>
+      <c r="B71" s="12"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>189</v>
       </c>
+      <c r="B72" s="12"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">

--- a/Liste TikTok par chapitre.xlsx
+++ b/Liste TikTok par chapitre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Desktop\histoire_et_culture_du_cirque_traditionnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D182C5E7-F9D5-4202-8B15-F472EDAD9668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D4CE25-91B2-4442-B89C-16D6F7C527C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapitre I." sheetId="1" r:id="rId1"/>
@@ -1356,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688F6DA9-B5FA-463A-95DD-7B60FDB3FED9}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="99" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -1971,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035F2A1E-00DD-447A-80C3-BE7F4AED3EC3}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:B72"/>
+    <sheetView topLeftCell="A33" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2132,12 +2132,12 @@
       <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2306,82 +2306,82 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2697,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591F2846-BF06-403D-911F-052728FDB3F0}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2738,7 +2738,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="17">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
@@ -2772,7 +2772,7 @@
         <v>168</v>
       </c>
       <c r="B10" s="17">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.5">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B11" s="19">
         <f>SUM(B1:B10)</f>
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Liste TikTok par chapitre.xlsx
+++ b/Liste TikTok par chapitre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issak\Desktop\histoire_et_culture_du_cirque_traditionnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D4CE25-91B2-4442-B89C-16D6F7C527C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED89876-5D10-4281-BD41-0D4DD0ADA237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{43AF29DC-E533-4926-9944-86D35A2EEB93}"/>
   </bookViews>
@@ -1971,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035F2A1E-00DD-447A-80C3-BE7F4AED3EC3}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:A69"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2160,82 +2160,82 @@
       <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2738,7 +2738,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="17">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B11" s="19">
         <f>SUM(B1:B10)</f>
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
